--- a/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P45C_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>92847</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76303</v>
+        <v>73055</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112473</v>
+        <v>111340</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09027883861383329</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07419208855446444</v>
+        <v>0.07103379896453073</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1093613089386875</v>
+        <v>0.1082601537180374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -765,19 +765,19 @@
         <v>88055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73491</v>
+        <v>72200</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106829</v>
+        <v>106970</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0670706802944972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05597745081702955</v>
+        <v>0.05499385474517868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08137019399064634</v>
+        <v>0.08147794766638776</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -786,19 +786,19 @@
         <v>180903</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>156842</v>
+        <v>156459</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208329</v>
+        <v>207511</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07726511461876305</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06698864061057495</v>
+        <v>0.0668251199299067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0889791602019266</v>
+        <v>0.08863000607951589</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>935604</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>915978</v>
+        <v>917111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>952148</v>
+        <v>955396</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9097211613861667</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8906386910613123</v>
+        <v>0.8917398462819623</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9258079114455355</v>
+        <v>0.9289662010354691</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1198</v>
@@ -836,19 +836,19 @@
         <v>1224816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1206042</v>
+        <v>1205901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1239380</v>
+        <v>1240671</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9329293197055027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9186298060093541</v>
+        <v>0.9185220523336127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9440225491829705</v>
+        <v>0.9450061452548213</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2142</v>
@@ -857,19 +857,19 @@
         <v>2160420</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2132994</v>
+        <v>2133812</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2184481</v>
+        <v>2184864</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9227348853812369</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9110208397980734</v>
+        <v>0.9113699939204841</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.933011359389425</v>
+        <v>0.9331748800700933</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>320712</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>286825</v>
+        <v>290757</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>351399</v>
+        <v>358263</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1897910276343679</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1697370946280486</v>
+        <v>0.172063934082786</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2079508514144078</v>
+        <v>0.2120126685011481</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>243</v>
@@ -982,19 +982,19 @@
         <v>241086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>214028</v>
+        <v>215188</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>270880</v>
+        <v>269812</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1523229285121757</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1352271397305862</v>
+        <v>0.1359599686302138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1711476397703013</v>
+        <v>0.1704725089379757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>558</v>
@@ -1003,19 +1003,19 @@
         <v>561798</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>519294</v>
+        <v>519579</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>602533</v>
+        <v>606941</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.171670015069648</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1586820101153735</v>
+        <v>0.1587688732543551</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1841173762212543</v>
+        <v>0.1854643638480871</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1369105</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1338418</v>
+        <v>1331554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1402992</v>
+        <v>1399060</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8102089723656322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7920491485855917</v>
+        <v>0.7879873314988516</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8302629053719515</v>
+        <v>0.8279360659172139</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1306</v>
@@ -1053,19 +1053,19 @@
         <v>1341643</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1311849</v>
+        <v>1312917</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1368701</v>
+        <v>1367541</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8476770714878242</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8288523602296989</v>
+        <v>0.8295274910620243</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8647728602694139</v>
+        <v>0.8640400313697862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2636</v>
@@ -1074,19 +1074,19 @@
         <v>2710749</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2670014</v>
+        <v>2665606</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2753253</v>
+        <v>2752968</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.828329984930352</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8158826237787455</v>
+        <v>0.8145356361519128</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8413179898846265</v>
+        <v>0.8412311267456449</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>99907</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83496</v>
+        <v>84065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118897</v>
+        <v>121434</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1814528685080699</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1516462774899143</v>
+        <v>0.152680387902788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2159419141097345</v>
+        <v>0.2205504162409157</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -1199,19 +1199,19 @@
         <v>89801</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73663</v>
+        <v>73031</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108390</v>
+        <v>109536</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1888965775661818</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1549489005307092</v>
+        <v>0.1536206742347717</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2279984368567066</v>
+        <v>0.2304081834484496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>187</v>
@@ -1220,19 +1220,19 @@
         <v>189708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>165242</v>
+        <v>163581</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214250</v>
+        <v>215789</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1849019401368982</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1610551414415111</v>
+        <v>0.1594362057030637</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2088219712599166</v>
+        <v>0.2103221584290174</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>450689</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>431699</v>
+        <v>429162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467100</v>
+        <v>466531</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.81854713149193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7840580858902654</v>
+        <v>0.7794495837590842</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8483537225100856</v>
+        <v>0.847319612097212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>364</v>
@@ -1270,19 +1270,19 @@
         <v>385598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>367009</v>
+        <v>365863</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>401736</v>
+        <v>402368</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8111034224338182</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7720015631432932</v>
+        <v>0.7695918165515505</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8450510994692907</v>
+        <v>0.8463793257652282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>790</v>
@@ -1291,19 +1291,19 @@
         <v>836286</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>811744</v>
+        <v>810205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>860752</v>
+        <v>862413</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8150980598631018</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7911780287400835</v>
+        <v>0.7896778415709826</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8389448585584889</v>
+        <v>0.8405637942969364</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>513467</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>470218</v>
+        <v>471266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>553814</v>
+        <v>553071</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1570780197001549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.143847546553388</v>
+        <v>0.1441681623315273</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1694208848364191</v>
+        <v>0.1691936911074355</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>421</v>
@@ -1416,19 +1416,19 @@
         <v>418942</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>383127</v>
+        <v>379058</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>461575</v>
+        <v>459149</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1242783733325966</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1136539755884104</v>
+        <v>0.1124466966701255</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1369254144854399</v>
+        <v>0.1362056538909484</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>927</v>
@@ -1437,19 +1437,19 @@
         <v>932409</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>872773</v>
+        <v>884311</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>993194</v>
+        <v>995789</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1404259336869714</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1314443443094817</v>
+        <v>0.1331820883015168</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1495804196739081</v>
+        <v>0.1499713120529937</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2755397</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2715050</v>
+        <v>2715793</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2798646</v>
+        <v>2797598</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8429219802998451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8305791151635812</v>
+        <v>0.8308063088925645</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8561524534466122</v>
+        <v>0.8558318376684726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2868</v>
@@ -1487,19 +1487,19 @@
         <v>2952057</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2909424</v>
+        <v>2911850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2987872</v>
+        <v>2991941</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8757216266674034</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8630745855145601</v>
+        <v>0.8637943461090517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8863460244115896</v>
+        <v>0.8875533033298746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5568</v>
@@ -1508,19 +1508,19 @@
         <v>5707455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5646670</v>
+        <v>5644075</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5767091</v>
+        <v>5755553</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8595740663130287</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8504195803260918</v>
+        <v>0.850028687947006</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8685556556905182</v>
+        <v>0.8668179116984831</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>109971</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90767</v>
+        <v>90867</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130232</v>
+        <v>130690</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.113795988949716</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09392366993694459</v>
+        <v>0.09402728145345403</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1347615219729659</v>
+        <v>0.1352349070492147</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>117</v>
@@ -1872,19 +1872,19 @@
         <v>126604</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105471</v>
+        <v>106997</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150257</v>
+        <v>150601</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09577266145587235</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07978612055751971</v>
+        <v>0.08094034226134679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1136652897696192</v>
+        <v>0.1139257076404688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>224</v>
@@ -1893,19 +1893,19 @@
         <v>236576</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>207335</v>
+        <v>207581</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>268661</v>
+        <v>269767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1033841780456708</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09060600040518921</v>
+        <v>0.09071331641553974</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1174054884855084</v>
+        <v>0.1178887409053525</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>856419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>836158</v>
+        <v>835700</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>875623</v>
+        <v>875523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.886204011050284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8652384780270341</v>
+        <v>0.8647650929507847</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9060763300630554</v>
+        <v>0.9059727185465459</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1115</v>
@@ -1943,19 +1943,19 @@
         <v>1195323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1171670</v>
+        <v>1171326</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1216456</v>
+        <v>1214930</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9042273385441276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8863347102303806</v>
+        <v>0.8860742923595313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9202138794424801</v>
+        <v>0.9190596577386529</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1908</v>
@@ -1964,19 +1964,19 @@
         <v>2051742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2019657</v>
+        <v>2018551</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2080983</v>
+        <v>2080737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8966158219543292</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8825945115144916</v>
+        <v>0.8821112590946475</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9093939995948108</v>
+        <v>0.9092866835844603</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>382811</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>349949</v>
+        <v>348813</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>420444</v>
+        <v>422889</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1962697142963424</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1794215146380038</v>
+        <v>0.1788390175581819</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2155647590289675</v>
+        <v>0.2168180588032441</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>265</v>
@@ -2089,19 +2089,19 @@
         <v>277698</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>246759</v>
+        <v>247090</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>309737</v>
+        <v>313846</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1594357666174266</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.141672895319741</v>
+        <v>0.1418631128364125</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1778307656025252</v>
+        <v>0.1801899512410999</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>642</v>
@@ -2110,19 +2110,19 @@
         <v>660508</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>613803</v>
+        <v>612237</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>708118</v>
+        <v>709234</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1788936509329001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1662439702336508</v>
+        <v>0.1658197945544971</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1917884264326146</v>
+        <v>0.1920906490690122</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1567620</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1529987</v>
+        <v>1527542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1600482</v>
+        <v>1601618</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8037302857036577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7844352409710327</v>
+        <v>0.7831819411967559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8205784853619963</v>
+        <v>0.8211609824418181</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1355</v>
@@ -2160,19 +2160,19 @@
         <v>1464054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1432015</v>
+        <v>1427906</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1494993</v>
+        <v>1494662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8405642333825734</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8221692343974745</v>
+        <v>0.8198100487589001</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8583271046802589</v>
+        <v>0.8581368871635872</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2821</v>
@@ -2181,19 +2181,19 @@
         <v>3031676</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2984066</v>
+        <v>2982950</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3078381</v>
+        <v>3079947</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8211063490671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8082115735673858</v>
+        <v>0.8079093509309879</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8337560297663493</v>
+        <v>0.8341802054455029</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>105123</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87149</v>
+        <v>87139</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125791</v>
+        <v>126624</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.221205709005373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1833835656407521</v>
+        <v>0.1833623054768932</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2646962830242158</v>
+        <v>0.2664477870878637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -2306,19 +2306,19 @@
         <v>69331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>55648</v>
+        <v>55233</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86426</v>
+        <v>86366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1521534407274242</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1221246801760942</v>
+        <v>0.12121353218079</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1896691720863458</v>
+        <v>0.1895378941944581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>164</v>
@@ -2327,19 +2327,19 @@
         <v>174455</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>151282</v>
+        <v>150507</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>202489</v>
+        <v>199171</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1874050527105738</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1625120630851908</v>
+        <v>0.1616800325198197</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2175204855218936</v>
+        <v>0.2139562421002113</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>370106</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>349438</v>
+        <v>348605</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>388080</v>
+        <v>388090</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.778794290994627</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7353037169757843</v>
+        <v>0.7335522129121363</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.816616434359248</v>
+        <v>0.8166376945231074</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>344</v>
@@ -2377,19 +2377,19 @@
         <v>386337</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>369242</v>
+        <v>369302</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>400020</v>
+        <v>400435</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8478465592725758</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8103308279136543</v>
+        <v>0.810462105805542</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8778753198239058</v>
+        <v>0.8787864678192101</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>677</v>
@@ -2398,19 +2398,19 @@
         <v>756442</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>728408</v>
+        <v>731726</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>779615</v>
+        <v>780390</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8125949472894263</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7824795144781065</v>
+        <v>0.7860437578997886</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8374879369148093</v>
+        <v>0.8383199674801803</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>597905</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>552661</v>
+        <v>554241</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>643346</v>
+        <v>640792</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1762666226991243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1629282401719423</v>
+        <v>0.1633940985791403</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1896629104913987</v>
+        <v>0.1889099932136501</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>447</v>
@@ -2523,19 +2523,19 @@
         <v>473634</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>437104</v>
+        <v>433620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>514804</v>
+        <v>515987</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1345799354754665</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1242001802777066</v>
+        <v>0.1232102575175234</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1462783409682551</v>
+        <v>0.1466143675064862</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1030</v>
@@ -2544,19 +2544,19 @@
         <v>1071539</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1009933</v>
+        <v>1012442</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1131609</v>
+        <v>1137993</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1550393750271891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1461256910425559</v>
+        <v>0.1464887402323689</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1637308837286063</v>
+        <v>0.1646545068350103</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2794145</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2748704</v>
+        <v>2751258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2839389</v>
+        <v>2837809</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8237333773008757</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8103370895086018</v>
+        <v>0.8110900067863498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8370717598280577</v>
+        <v>0.8366059014208598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2814</v>
@@ -2594,19 +2594,19 @@
         <v>3045714</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3004544</v>
+        <v>3003361</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3082244</v>
+        <v>3085728</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8654200645245336</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8537216590317449</v>
+        <v>0.8533856324935138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8757998197222935</v>
+        <v>0.8767897424824767</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5406</v>
@@ -2615,19 +2615,19 @@
         <v>5839860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5779790</v>
+        <v>5773406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5901466</v>
+        <v>5898957</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8449606249728109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8362691162713938</v>
+        <v>0.8353454931649896</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8538743089574442</v>
+        <v>0.8535112597676311</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>49184</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36949</v>
+        <v>36366</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65104</v>
+        <v>63954</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06590382887700431</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04950932275678732</v>
+        <v>0.04872850034856131</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08723477081327521</v>
+        <v>0.08569373074515746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -2979,19 +2979,19 @@
         <v>62520</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48830</v>
+        <v>47817</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79425</v>
+        <v>79309</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0634726116900287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04957393236471976</v>
+        <v>0.04854566990808176</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08063576208181128</v>
+        <v>0.08051781753313807</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -3000,19 +3000,19 @@
         <v>111704</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92949</v>
+        <v>91920</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132647</v>
+        <v>131395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06452063027013283</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.053687615412291</v>
+        <v>0.05309310170018802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0766172326021219</v>
+        <v>0.07589392474915413</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>697122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>681202</v>
+        <v>682352</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>709357</v>
+        <v>709940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9340961711229957</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9127652291867248</v>
+        <v>0.9143062692548425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9504906772432127</v>
+        <v>0.9512714996514385</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>825</v>
@@ -3050,19 +3050,19 @@
         <v>922471</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>905566</v>
+        <v>905682</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>936161</v>
+        <v>937174</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9365273883099713</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9193642379181888</v>
+        <v>0.9194821824668615</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9504260676352803</v>
+        <v>0.9514543300919179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1533</v>
@@ -3071,19 +3071,19 @@
         <v>1619593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1598650</v>
+        <v>1599902</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1638348</v>
+        <v>1639377</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9354793697298671</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9233827673978779</v>
+        <v>0.9241060752508459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9463123845877088</v>
+        <v>0.946906898299812</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>317703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>284090</v>
+        <v>286691</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>351444</v>
+        <v>355327</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1541518065705209</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1378426064545444</v>
+        <v>0.1391046172099464</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1705234723346417</v>
+        <v>0.1724075889310464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>307</v>
@@ -3196,19 +3196,19 @@
         <v>315761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>284412</v>
+        <v>279854</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>350832</v>
+        <v>346772</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1596468326333152</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1437970207635497</v>
+        <v>0.1414924007149345</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1773785370258027</v>
+        <v>0.1753257093020016</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>604</v>
@@ -3217,19 +3217,19 @@
         <v>633464</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>586041</v>
+        <v>586366</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>682749</v>
+        <v>683900</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1568427900262688</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1451010197255328</v>
+        <v>0.1451816660183952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1690455934552144</v>
+        <v>0.1693305697491067</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1743269</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1709528</v>
+        <v>1705645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1776882</v>
+        <v>1774281</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.845848193429479</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8294765276653582</v>
+        <v>0.8275924110689532</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8621573935454554</v>
+        <v>0.8608953827900535</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1592</v>
@@ -3267,19 +3267,19 @@
         <v>1662113</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1627042</v>
+        <v>1631102</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1693462</v>
+        <v>1698020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8403531673666848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8226214629741975</v>
+        <v>0.8246742906979984</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8562029792364504</v>
+        <v>0.8585075992850655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3233</v>
@@ -3288,19 +3288,19 @@
         <v>3405382</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3356097</v>
+        <v>3354946</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3452805</v>
+        <v>3452480</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8431572099737312</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8309544065447857</v>
+        <v>0.8306694302508933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8548989802744672</v>
+        <v>0.8548183339816049</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>85369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69650</v>
+        <v>69606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105157</v>
+        <v>104351</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1577228738203453</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1286810506265488</v>
+        <v>0.1285998997831662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1942802651469857</v>
+        <v>0.192791407846981</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>95</v>
@@ -3413,19 +3413,19 @@
         <v>97161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78713</v>
+        <v>79359</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118021</v>
+        <v>116618</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1789663297950822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1449861301612252</v>
+        <v>0.1461748909454011</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2173884652280411</v>
+        <v>0.2148049726403884</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>174</v>
@@ -3434,19 +3434,19 @@
         <v>182531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>159834</v>
+        <v>156621</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>210332</v>
+        <v>208587</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1683606697342012</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1474258497277637</v>
+        <v>0.1444620642748246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1940034054980515</v>
+        <v>0.1923943710779653</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>455893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>436105</v>
+        <v>436911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>471612</v>
+        <v>471656</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8422771261796547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8057197348530152</v>
+        <v>0.8072085921530193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8713189493734516</v>
+        <v>0.871400100216834</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>425</v>
@@ -3484,19 +3484,19 @@
         <v>445741</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>424881</v>
+        <v>426284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>464189</v>
+        <v>463543</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8210336702049178</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7826115347719588</v>
+        <v>0.7851950273596116</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8550138698387747</v>
+        <v>0.853825109054599</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>842</v>
@@ -3505,19 +3505,19 @@
         <v>901633</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>873832</v>
+        <v>875577</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>924330</v>
+        <v>927543</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8316393302657987</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8059965945019487</v>
+        <v>0.8076056289220338</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8525741502722365</v>
+        <v>0.8555379357251751</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>452256</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>412921</v>
+        <v>411519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>492765</v>
+        <v>494051</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1350607726283719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1233138905502705</v>
+        <v>0.1228950649678136</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1471581178936033</v>
+        <v>0.147542178500232</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>461</v>
@@ -3630,19 +3630,19 @@
         <v>475442</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>436584</v>
+        <v>435360</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>515131</v>
+        <v>517820</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1356172349233293</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.124533048770324</v>
+        <v>0.1241838406747227</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.146938065094028</v>
+        <v>0.147705123315642</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>883</v>
@@ -3651,19 +3651,19 @@
         <v>927699</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>873244</v>
+        <v>866766</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>990306</v>
+        <v>977128</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1353453859590864</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1274008093005643</v>
+        <v>0.1264556313872817</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1444794325353801</v>
+        <v>0.1425568023327125</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2896284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2855775</v>
+        <v>2854489</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2935619</v>
+        <v>2937021</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8649392273716281</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8528418821063968</v>
+        <v>0.8524578214997682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8766861094497296</v>
+        <v>0.8771049350321865</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2842</v>
@@ -3701,19 +3701,19 @@
         <v>3030325</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2990636</v>
+        <v>2987947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3069183</v>
+        <v>3070407</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8643827650766707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8530619349059717</v>
+        <v>0.8522948766843579</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8754669512296759</v>
+        <v>0.8758161593252772</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5608</v>
@@ -3722,19 +3722,19 @@
         <v>5926607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5864000</v>
+        <v>5877178</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5981062</v>
+        <v>5987540</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8646546140409136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8555205674646199</v>
+        <v>0.8574431976672875</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8725991906994358</v>
+        <v>0.8735443686127183</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>83198</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67939</v>
+        <v>68057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101300</v>
+        <v>101353</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1440471153181685</v>
+        <v>0.1440471153181684</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1176285766154391</v>
+        <v>0.1178326879041537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1753878420469146</v>
+        <v>0.1754804552746639</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>131</v>
@@ -4086,19 +4086,19 @@
         <v>74760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62822</v>
+        <v>62230</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88781</v>
+        <v>87071</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09101270214506493</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07647853607203373</v>
+        <v>0.07575814414608155</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1080808161595287</v>
+        <v>0.1059988863700145</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>223</v>
@@ -4107,19 +4107,19 @@
         <v>157959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>136667</v>
+        <v>137767</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>179370</v>
+        <v>180531</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1129078370413954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09768846975414994</v>
+        <v>0.0984748524818769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1282125007070126</v>
+        <v>0.1290421186990871</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>494378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>476276</v>
+        <v>476223</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>509637</v>
+        <v>509519</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8559528846818317</v>
+        <v>0.8559528846818315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8246121579530854</v>
+        <v>0.8245195447253362</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.882371423384561</v>
+        <v>0.8821673120958463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1295</v>
@@ -4157,19 +4157,19 @@
         <v>746669</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>732648</v>
+        <v>734358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>758607</v>
+        <v>759199</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9089872978549352</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8919191838404714</v>
+        <v>0.8940011136299856</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9235214639279661</v>
+        <v>0.9242418558539186</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1892</v>
@@ -4178,19 +4178,19 @@
         <v>1241047</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1219636</v>
+        <v>1218475</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1262339</v>
+        <v>1261239</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8870921629586045</v>
+        <v>0.8870921629586046</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8717874992929873</v>
+        <v>0.8709578813009125</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9023115302458501</v>
+        <v>0.9015251475181228</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>408330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>365700</v>
+        <v>367205</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>452318</v>
+        <v>449238</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1835994760402739</v>
+        <v>0.183599476040274</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.164431830501117</v>
+        <v>0.1651083434845989</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2033780884377467</v>
+        <v>0.2019932651760735</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>373</v>
@@ -4303,19 +4303,19 @@
         <v>320440</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>289230</v>
+        <v>286613</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>356117</v>
+        <v>355788</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1478182297092195</v>
+        <v>0.1478182297092194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1334212363083111</v>
+        <v>0.1322136454069063</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1642758816618211</v>
+        <v>0.164124143324216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>688</v>
@@ -4324,19 +4324,19 @@
         <v>728770</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>674976</v>
+        <v>671993</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>787155</v>
+        <v>779171</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1659378944799092</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1536892517096695</v>
+        <v>0.1530101371674353</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.179231910323145</v>
+        <v>0.177413929753689</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1815694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1771706</v>
+        <v>1774786</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1858324</v>
+        <v>1856819</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8164005239597261</v>
+        <v>0.8164005239597262</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7966219115622534</v>
+        <v>0.7980067348239266</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.835568169498883</v>
+        <v>0.8348916565154012</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2544</v>
@@ -4374,19 +4374,19 @@
         <v>1847359</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1811682</v>
+        <v>1812011</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1878569</v>
+        <v>1881186</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8521817702907806</v>
+        <v>0.8521817702907805</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8357241183381788</v>
+        <v>0.835875856675784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.866578763691689</v>
+        <v>0.8677863545930938</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4216</v>
@@ -4395,19 +4395,19 @@
         <v>3663053</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3604668</v>
+        <v>3612652</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3716847</v>
+        <v>3719830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8340621055200909</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8207680896768549</v>
+        <v>0.8225860702463108</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8463107482903305</v>
+        <v>0.8469898628325646</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>106671</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>87598</v>
+        <v>84570</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>131268</v>
+        <v>128347</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1499061744584864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1231029670557022</v>
+        <v>0.1188472488199449</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1844727398469611</v>
+        <v>0.1803672146368491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -4520,19 +4520,19 @@
         <v>101720</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85544</v>
+        <v>84883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118681</v>
+        <v>119882</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1384179776625183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1164061637245491</v>
+        <v>0.1155067482086898</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1614974747949681</v>
+        <v>0.1631320004787278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -4541,19 +4541,19 @@
         <v>208391</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>182253</v>
+        <v>183250</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>237539</v>
+        <v>237455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1440695874415551</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.12599891748455</v>
+        <v>0.1266881959326468</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1642205161148452</v>
+        <v>0.1641625229351969</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>604916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>580319</v>
+        <v>583240</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623989</v>
+        <v>627017</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8500938255415137</v>
+        <v>0.8500938255415136</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8155272601530388</v>
+        <v>0.8196327853631515</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8768970329442979</v>
+        <v>0.881152751180055</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>882</v>
@@ -4591,19 +4591,19 @@
         <v>633157</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>616196</v>
+        <v>614995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>649333</v>
+        <v>649994</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8615820223374815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.838502525205032</v>
+        <v>0.8368679995212721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.883593836275451</v>
+        <v>0.8844932517913101</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1471</v>
@@ -4612,19 +4612,19 @@
         <v>1238073</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1208925</v>
+        <v>1209009</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1264211</v>
+        <v>1263214</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.855930412558445</v>
+        <v>0.8559304125584447</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8357794838851548</v>
+        <v>0.835837477064803</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8740010825154499</v>
+        <v>0.8733118040673532</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>598199</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>549186</v>
+        <v>542521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>652402</v>
+        <v>652226</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1702724847304356</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1563211323674657</v>
+        <v>0.1544240897627917</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.185700783694158</v>
+        <v>0.185650676373087</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>626</v>
@@ -4737,19 +4737,19 @@
         <v>496921</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>458983</v>
+        <v>460966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>536674</v>
+        <v>537104</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1334336309095218</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1232464039425013</v>
+        <v>0.123778855457489</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1441080464376231</v>
+        <v>0.1442236141160012</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1125</v>
@@ -4758,19 +4758,19 @@
         <v>1095120</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1031188</v>
+        <v>1029187</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1154527</v>
+        <v>1170106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1513162568488939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1424824882581419</v>
+        <v>0.1422060989286076</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1595246819377849</v>
+        <v>0.161677334547684</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2914989</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2860786</v>
+        <v>2860962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2964002</v>
+        <v>2970667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8297275152695646</v>
+        <v>0.8297275152695645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.814299216305842</v>
+        <v>0.8143493236269128</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8436788676325342</v>
+        <v>0.845575910237208</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4721</v>
@@ -4808,19 +4808,19 @@
         <v>3227185</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3187432</v>
+        <v>3187002</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3265123</v>
+        <v>3263140</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8665663690904781</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.855891953562377</v>
+        <v>0.8557763858839988</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8767535960574988</v>
+        <v>0.8762211445425109</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7579</v>
@@ -4829,19 +4829,19 @@
         <v>6142173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6082766</v>
+        <v>6067187</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6206105</v>
+        <v>6208106</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8486837431511062</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8404753180622153</v>
+        <v>0.838322665452316</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8575175117418582</v>
+        <v>0.8577939010713916</v>
       </c>
     </row>
     <row r="15">
